--- a/metrics/metrics.xlsx
+++ b/metrics/metrics.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/20677840/Documents/NBO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C03F8E1-507F-1649-BA50-69793CDBDE0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{756C78D4-E6F4-F448-98AD-4EEF2DF32D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="17620" windowHeight="20180" xr2:uid="{96DAB536-87B7-6444-959C-762D928460F3}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="31760" windowHeight="20180" activeTab="2" xr2:uid="{96DAB536-87B7-6444-959C-762D928460F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Item_id" sheetId="7" r:id="rId1"/>
     <sheet name="Category_id" sheetId="8" r:id="rId2"/>
+    <sheet name="Best models" sheetId="9" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="72">
   <si>
     <t>Таргет - item_id</t>
   </si>
@@ -247,6 +248,9 @@
   </si>
   <si>
     <t>79 days 11:52:01</t>
+  </si>
+  <si>
+    <t>Category_id: TopPopular + UserTopPopular BM-25 + Apriori + Markov</t>
   </si>
 </sst>
 </file>
@@ -401,7 +405,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -468,9 +472,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -498,20 +499,18 @@
     <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -827,11 +826,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{384C8797-15B2-3E49-B58E-8DB4250B66B7}">
-  <dimension ref="A1:Q58"/>
+  <dimension ref="A1:N58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O38" sqref="O38"/>
+      <selection pane="topRight" activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -844,15 +843,12 @@
     <col min="7" max="7" width="15.5" customWidth="1"/>
     <col min="8" max="8" width="15.83203125" customWidth="1"/>
     <col min="9" max="9" width="15.5" customWidth="1"/>
-    <col min="11" max="11" width="15.5" style="47" customWidth="1"/>
-    <col min="12" max="12" width="15.6640625" style="47" customWidth="1"/>
-    <col min="13" max="13" width="15.1640625" style="47" customWidth="1"/>
-    <col min="15" max="15" width="14.5" customWidth="1"/>
-    <col min="16" max="16" width="18" customWidth="1"/>
-    <col min="17" max="17" width="13.33203125" customWidth="1"/>
+    <col min="11" max="11" width="15.5" style="46" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" style="46" customWidth="1"/>
+    <col min="13" max="13" width="15.1640625" style="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>15</v>
@@ -878,27 +874,27 @@
       <c r="I1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="44"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-    </row>
-    <row r="2" spans="1:17" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K1" s="43"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+    </row>
+    <row r="2" spans="1:14" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-    </row>
-    <row r="3" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+    </row>
+    <row r="3" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
         <v>44</v>
       </c>
       <c r="D3" s="4"/>
@@ -907,10 +903,10 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
-      <c r="K3" s="43"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
+      <c r="K3" s="42"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
         <v>55</v>
       </c>
       <c r="B4" s="9">
@@ -941,8 +937,8 @@
       <c r="L4"/>
       <c r="M4"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="52" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
         <v>54</v>
       </c>
       <c r="B5" s="9">
@@ -973,8 +969,8 @@
       <c r="L5"/>
       <c r="M5"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="52" t="s">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
         <v>56</v>
       </c>
       <c r="B6" s="9">
@@ -1005,8 +1001,8 @@
       <c r="L6"/>
       <c r="M6"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="52" t="s">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B7" s="9">
@@ -1037,7 +1033,7 @@
       <c r="L7"/>
       <c r="M7"/>
     </row>
-    <row r="8" spans="1:17" s="5" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" s="5" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>13</v>
       </c>
@@ -1065,11 +1061,11 @@
       <c r="I8" s="11">
         <v>4.0844660055404701E-3</v>
       </c>
-      <c r="K8" s="42"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K8" s="41"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>4</v>
       </c>
@@ -1097,9 +1093,9 @@
       <c r="I9" s="16">
         <v>6.3722316344553706E-2</v>
       </c>
-      <c r="K9" s="43"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K9" s="42"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>5</v>
       </c>
@@ -1127,9 +1123,9 @@
       <c r="I10" s="16">
         <v>0.115937019734119</v>
       </c>
-      <c r="K10" s="43"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K10" s="42"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>6</v>
       </c>
@@ -1157,10 +1153,10 @@
       <c r="I11" s="16">
         <v>0.16395754604243701</v>
       </c>
-      <c r="K11" s="43"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="52" t="s">
+      <c r="K11" s="42"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
         <v>53</v>
       </c>
       <c r="B12" s="9">
@@ -1191,8 +1187,8 @@
       <c r="L12"/>
       <c r="M12"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="52" t="s">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="9">
@@ -1223,8 +1219,8 @@
       <c r="L13"/>
       <c r="M13"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="52" t="s">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="9">
@@ -1255,8 +1251,8 @@
       <c r="L14"/>
       <c r="M14"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="52" t="s">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="9">
@@ -1283,12 +1279,12 @@
       <c r="I15" s="16">
         <v>0.38949036176392898</v>
       </c>
-      <c r="K15" s="44"/>
+      <c r="K15" s="43"/>
       <c r="L15"/>
       <c r="M15"/>
     </row>
-    <row r="16" spans="1:17" ht="62" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="37" t="s">
+    <row r="16" spans="1:14" ht="62" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="36" t="s">
         <v>45</v>
       </c>
       <c r="D16" s="4"/>
@@ -1297,28 +1293,19 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
-      <c r="K16" s="44" t="s">
+      <c r="K16" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="L16" s="44" t="s">
+      <c r="L16" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="M16" s="44" t="s">
+      <c r="M16" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="N16" s="44"/>
-      <c r="O16" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="P16" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q16" s="45" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="52" t="s">
+      <c r="N16" s="43"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
         <v>55</v>
       </c>
       <c r="B17" s="9">
@@ -1355,16 +1342,9 @@
         <v>8.8768594313880803E-2</v>
       </c>
       <c r="N17" s="4"/>
-      <c r="O17" s="20">
-        <v>0.150250858199102</v>
-      </c>
-      <c r="P17" s="27">
-        <v>0.66508229909338901</v>
-      </c>
-      <c r="Q17" s="55"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="52" t="s">
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
         <v>54</v>
       </c>
       <c r="B18" s="9">
@@ -1401,16 +1381,9 @@
         <v>5.5329636475662303E-2</v>
       </c>
       <c r="N18" s="4"/>
-      <c r="O18" s="20">
-        <v>0.235331396884077</v>
-      </c>
-      <c r="P18" s="35">
-        <v>0.40369685767097901</v>
-      </c>
-      <c r="Q18" s="55"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" s="52" t="s">
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
         <v>56</v>
       </c>
       <c r="B19" s="9">
@@ -1447,16 +1420,9 @@
         <v>4.1585247777484298E-2</v>
       </c>
       <c r="N19" s="4"/>
-      <c r="O19" s="20">
-        <v>0.16004753102719799</v>
-      </c>
-      <c r="P19" s="35">
-        <v>0.30489833641404801</v>
-      </c>
-      <c r="Q19" s="55"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" s="52" t="s">
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B20" s="9">
@@ -1493,15 +1459,8 @@
         <v>3.0283425754775099E-2</v>
       </c>
       <c r="N20" s="4"/>
-      <c r="O20" s="20">
-        <v>0.10452865064694999</v>
-      </c>
-      <c r="P20" s="35">
-        <v>0.21945691400404799</v>
-      </c>
-      <c r="Q20" s="55"/>
-    </row>
-    <row r="21" spans="1:17" s="5" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:14" s="5" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>13</v>
       </c>
@@ -1520,7 +1479,7 @@
       <c r="F21" s="11">
         <v>1.05265796855229E-2</v>
       </c>
-      <c r="G21" s="40">
+      <c r="G21" s="39">
         <v>2.3802313414585598E-3</v>
       </c>
       <c r="H21" s="11">
@@ -1529,27 +1488,18 @@
       <c r="I21" s="11">
         <v>5.6892471317278202E-3</v>
       </c>
-      <c r="K21" s="49">
+      <c r="K21" s="48">
         <v>9.7907427039048804E-3</v>
       </c>
       <c r="L21" s="21">
         <v>1.40101708740356E-2</v>
       </c>
-      <c r="M21" s="49">
+      <c r="M21" s="48">
         <v>1.09707442833194E-2</v>
       </c>
-      <c r="N21" s="56"/>
-      <c r="O21" s="36">
-        <v>9.3324483253098799E-3</v>
-      </c>
-      <c r="P21" s="35">
-        <v>5.0471562294962503E-2</v>
-      </c>
-      <c r="Q21" s="54">
-        <v>0.23093641195527401</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="N21" s="51"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>4</v>
       </c>
@@ -1568,7 +1518,7 @@
       <c r="F22" s="16">
         <v>2.4293772072232898E-2</v>
       </c>
-      <c r="G22" s="41">
+      <c r="G22" s="40">
         <v>4.9005331502739499E-3</v>
       </c>
       <c r="H22" s="20">
@@ -1587,17 +1537,8 @@
         <v>2.8213180753943599E-2</v>
       </c>
       <c r="N22" s="4"/>
-      <c r="O22" s="20">
-        <v>0.112690631237096</v>
-      </c>
-      <c r="P22" s="35">
-        <v>0.14858614799210501</v>
-      </c>
-      <c r="Q22" s="55">
-        <v>0.319344177890796</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>5</v>
       </c>
@@ -1616,7 +1557,7 @@
       <c r="F23" s="16">
         <v>3.2460727711770498E-2</v>
       </c>
-      <c r="G23" s="41">
+      <c r="G23" s="40">
         <v>6.0917063464157196E-3</v>
       </c>
       <c r="H23" s="20">
@@ -1635,17 +1576,8 @@
         <v>3.8321805500318898E-2</v>
       </c>
       <c r="N23" s="4"/>
-      <c r="O23" s="20">
-        <v>0.14771042705801199</v>
-      </c>
-      <c r="P23" s="35">
-        <v>0.21639222509963801</v>
-      </c>
-      <c r="Q23" s="55">
-        <v>0.376332118479064</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>6</v>
       </c>
@@ -1664,7 +1596,7 @@
       <c r="F24" s="16">
         <v>4.1397058091440897E-2</v>
       </c>
-      <c r="G24" s="41">
+      <c r="G24" s="40">
         <v>7.4778949072250899E-3</v>
       </c>
       <c r="H24" s="20">
@@ -1683,18 +1615,9 @@
         <v>5.0672135247768597E-2</v>
       </c>
       <c r="N24" s="4"/>
-      <c r="O24" s="20">
-        <v>0.187524853334298</v>
-      </c>
-      <c r="P24" s="35">
-        <v>0.30120322975955</v>
-      </c>
-      <c r="Q24" s="55">
-        <v>0.45072142044822</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25" s="52" t="s">
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="8" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="9">
@@ -1731,16 +1654,9 @@
         <v>7.0812428483408102E-2</v>
       </c>
       <c r="N25" s="4"/>
-      <c r="O25" s="20">
-        <v>5.98538861015755E-2</v>
-      </c>
-      <c r="P25" s="35">
-        <v>0.21300941818501801</v>
-      </c>
-      <c r="Q25" s="55"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A26" s="52" t="s">
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B26" s="9">
@@ -1777,16 +1693,9 @@
         <v>0.15887685943138799</v>
       </c>
       <c r="N26" s="4"/>
-      <c r="O26" s="20">
-        <v>0.30283425754775101</v>
-      </c>
-      <c r="P26" s="35">
-        <v>0.46496787254643002</v>
-      </c>
-      <c r="Q26" s="55"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A27" s="52" t="s">
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B27" s="9">
@@ -1823,16 +1732,9 @@
         <v>0.20139072264765401</v>
       </c>
       <c r="N27" s="4"/>
-      <c r="O27" s="20">
-        <v>0.37593521697033699</v>
-      </c>
-      <c r="P27" s="35">
-        <v>0.57644573541061495</v>
-      </c>
-      <c r="Q27" s="55"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A28" s="52" t="s">
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B28" s="9">
@@ -1869,15 +1771,8 @@
         <v>0.247425402693424</v>
       </c>
       <c r="N28" s="4"/>
-      <c r="O28" s="20">
-        <v>0.445471349353049</v>
-      </c>
-      <c r="P28" s="35">
-        <v>0.67067159581022795</v>
-      </c>
-      <c r="Q28" s="55"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>14</v>
       </c>
@@ -1905,49 +1800,41 @@
       <c r="I29" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K29" s="48" t="s">
+      <c r="K29" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="L29" s="48" t="s">
+      <c r="L29" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="M29" s="48" t="s">
+      <c r="M29" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="O29" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="P29" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q29" s="53"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
-      <c r="K30" s="43"/>
-      <c r="O30" s="4"/>
-    </row>
-    <row r="31" spans="1:17" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K30" s="42"/>
+    </row>
+    <row r="31" spans="1:14" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="K31" s="39"/>
-    </row>
-    <row r="32" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A32" s="37" t="s">
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="K31" s="38"/>
+    </row>
+    <row r="32" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A32" s="36" t="s">
         <v>44</v>
       </c>
       <c r="D32" s="4"/>
@@ -1958,7 +1845,7 @@
       <c r="I32" s="4"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="52" t="s">
+      <c r="A33" s="8" t="s">
         <v>55</v>
       </c>
       <c r="B33" s="9">
@@ -1990,7 +1877,7 @@
       <c r="M33"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="52" t="s">
+      <c r="A34" s="8" t="s">
         <v>54</v>
       </c>
       <c r="B34" s="9">
@@ -2022,7 +1909,7 @@
       <c r="M34"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" s="52" t="s">
+      <c r="A35" s="8" t="s">
         <v>56</v>
       </c>
       <c r="B35" s="9">
@@ -2054,7 +1941,7 @@
       <c r="M35"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" s="52" t="s">
+      <c r="A36" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B36" s="9">
@@ -2202,7 +2089,7 @@
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="52" t="s">
+      <c r="A41" s="8" t="s">
         <v>53</v>
       </c>
       <c r="B41" s="9">
@@ -2234,7 +2121,7 @@
       <c r="M41"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42" s="52" t="s">
+      <c r="A42" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B42" s="9">
@@ -2266,7 +2153,7 @@
       <c r="M42"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" s="52" t="s">
+      <c r="A43" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B43" s="9">
@@ -2298,7 +2185,7 @@
       <c r="M43"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44" s="52" t="s">
+      <c r="A44" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B44" s="9">
@@ -2330,7 +2217,7 @@
       <c r="M44"/>
     </row>
     <row r="45" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A45" s="37" t="s">
+      <c r="A45" s="36" t="s">
         <v>45</v>
       </c>
       <c r="D45" s="4"/>
@@ -2341,7 +2228,7 @@
       <c r="I45" s="4"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A46" s="52" t="s">
+      <c r="A46" s="8" t="s">
         <v>55</v>
       </c>
       <c r="B46" s="9">
@@ -2373,7 +2260,7 @@
       <c r="M46"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A47" s="52" t="s">
+      <c r="A47" s="8" t="s">
         <v>54</v>
       </c>
       <c r="B47" s="10">
@@ -2405,7 +2292,7 @@
       <c r="M47"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A48" s="52" t="s">
+      <c r="A48" s="8" t="s">
         <v>56</v>
       </c>
       <c r="B48" s="9">
@@ -2437,7 +2324,7 @@
       <c r="M48"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A49" s="52" t="s">
+      <c r="A49" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B49" s="9">
@@ -2496,9 +2383,9 @@
       <c r="I50" s="11">
         <v>3.6215918259175899E-3</v>
       </c>
-      <c r="K50" s="46"/>
-      <c r="L50" s="46"/>
-      <c r="M50" s="46"/>
+      <c r="K50" s="45"/>
+      <c r="L50" s="45"/>
+      <c r="M50" s="45"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
@@ -2588,7 +2475,7 @@
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A54" s="52" t="s">
+      <c r="A54" s="8" t="s">
         <v>53</v>
       </c>
       <c r="B54" s="9">
@@ -2620,7 +2507,7 @@
       <c r="M54"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A55" s="52" t="s">
+      <c r="A55" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B55" s="10">
@@ -2652,7 +2539,7 @@
       <c r="M55"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A56" s="52" t="s">
+      <c r="A56" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B56" s="10">
@@ -2684,7 +2571,7 @@
       <c r="M56"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A57" s="52" t="s">
+      <c r="A57" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B57" s="10">
@@ -2758,7 +2645,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M17" sqref="M17:M29"/>
+      <selection pane="topRight" activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2805,19 +2692,19 @@
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
     </row>
     <row r="3" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="36" t="s">
         <v>44</v>
       </c>
       <c r="D3" s="4"/>
@@ -2828,7 +2715,7 @@
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="8" t="s">
         <v>55</v>
       </c>
       <c r="B4" s="22">
@@ -2857,7 +2744,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="8" t="s">
         <v>54</v>
       </c>
       <c r="B5" s="22">
@@ -2886,7 +2773,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="8" t="s">
         <v>56</v>
       </c>
       <c r="B6" s="22">
@@ -2915,7 +2802,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B7" s="22">
@@ -3060,7 +2947,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="8" t="s">
         <v>53</v>
       </c>
       <c r="B12" s="22">
@@ -3089,7 +2976,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="52" t="s">
+      <c r="A13" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="22">
@@ -3118,7 +3005,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="52" t="s">
+      <c r="A14" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="22">
@@ -3147,7 +3034,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="52" t="s">
+      <c r="A15" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="22">
@@ -3176,7 +3063,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="49" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="36" t="s">
         <v>45</v>
       </c>
       <c r="D16" s="4"/>
@@ -3185,18 +3072,18 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
-      <c r="K16" s="44" t="s">
+      <c r="K16" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="L16" s="44" t="s">
+      <c r="L16" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="M16" s="44" t="s">
+      <c r="M16" s="43" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="52" t="s">
+      <c r="A17" s="8" t="s">
         <v>55</v>
       </c>
       <c r="B17" s="23">
@@ -3234,7 +3121,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="52" t="s">
+      <c r="A18" s="8" t="s">
         <v>54</v>
       </c>
       <c r="B18" s="23">
@@ -3272,7 +3159,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="52" t="s">
+      <c r="A19" s="8" t="s">
         <v>56</v>
       </c>
       <c r="B19" s="23">
@@ -3310,7 +3197,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="52" t="s">
+      <c r="A20" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B20" s="23">
@@ -3500,7 +3387,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="52" t="s">
+      <c r="A25" s="8" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="23">
@@ -3538,7 +3425,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="52" t="s">
+      <c r="A26" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B26" s="23">
@@ -3576,7 +3463,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="52" t="s">
+      <c r="A27" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B27" s="23">
@@ -3614,7 +3501,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="52" t="s">
+      <c r="A28" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B28" s="23">
@@ -3695,7 +3582,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A32" s="37" t="s">
+      <c r="A32" s="36" t="s">
         <v>44</v>
       </c>
       <c r="D32" s="4"/>
@@ -3706,7 +3593,7 @@
       <c r="I32" s="4"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="52" t="s">
+      <c r="A33" s="8" t="s">
         <v>55</v>
       </c>
       <c r="B33" s="22">
@@ -3735,7 +3622,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="52" t="s">
+      <c r="A34" s="8" t="s">
         <v>54</v>
       </c>
       <c r="B34" s="22">
@@ -3764,7 +3651,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="52" t="s">
+      <c r="A35" s="8" t="s">
         <v>56</v>
       </c>
       <c r="B35" s="22">
@@ -3793,7 +3680,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="52" t="s">
+      <c r="A36" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B36" s="22">
@@ -3938,7 +3825,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="52" t="s">
+      <c r="A41" s="8" t="s">
         <v>53</v>
       </c>
       <c r="B41" s="22">
@@ -3967,7 +3854,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="52" t="s">
+      <c r="A42" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B42" s="22">
@@ -3996,7 +3883,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="52" t="s">
+      <c r="A43" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B43" s="22">
@@ -4025,7 +3912,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="52" t="s">
+      <c r="A44" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B44" s="22">
@@ -4054,12 +3941,12 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="A45" s="37" t="s">
+      <c r="A45" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="47"/>
-      <c r="C45" s="47"/>
-      <c r="D45" s="43"/>
+      <c r="B45" s="46"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="42"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
@@ -4067,7 +3954,7 @@
       <c r="I45" s="4"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="52" t="s">
+      <c r="A46" s="8" t="s">
         <v>55</v>
       </c>
       <c r="B46" s="23">
@@ -4096,7 +3983,7 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="52" t="s">
+      <c r="A47" s="8" t="s">
         <v>54</v>
       </c>
       <c r="B47" s="23">
@@ -4125,7 +4012,7 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="52" t="s">
+      <c r="A48" s="8" t="s">
         <v>56</v>
       </c>
       <c r="B48" s="23">
@@ -4154,7 +4041,7 @@
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="52" t="s">
+      <c r="A49" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B49" s="23">
@@ -4299,7 +4186,7 @@
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="52" t="s">
+      <c r="A54" s="8" t="s">
         <v>53</v>
       </c>
       <c r="B54" s="23">
@@ -4328,7 +4215,7 @@
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="52" t="s">
+      <c r="A55" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B55" s="23">
@@ -4357,7 +4244,7 @@
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="52" t="s">
+      <c r="A56" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B56" s="23">
@@ -4386,7 +4273,7 @@
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="52" t="s">
+      <c r="A57" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B57" s="23">
@@ -4449,4 +4336,95 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99D4D00E-4AB1-FE43-BBED-B4DF70605141}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="85" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="44" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="11">
+        <v>9.3324483253098799E-3</v>
+      </c>
+      <c r="C2" s="27">
+        <v>5.0471562294962503E-2</v>
+      </c>
+      <c r="D2" s="49">
+        <v>0.23093641195527401</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="16">
+        <v>0.112690631237096</v>
+      </c>
+      <c r="C3" s="27">
+        <v>0.14858614799210501</v>
+      </c>
+      <c r="D3" s="50">
+        <v>0.319344177890796</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="16">
+        <v>0.14771042705801199</v>
+      </c>
+      <c r="C4" s="27">
+        <v>0.21639222509963801</v>
+      </c>
+      <c r="D4" s="50">
+        <v>0.376332118479064</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="16">
+        <v>0.187524853334298</v>
+      </c>
+      <c r="C5" s="27">
+        <v>0.30120322975955</v>
+      </c>
+      <c r="D5" s="50">
+        <v>0.45072142044822</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>